--- a/Resources/Model Scores.xlsx
+++ b/Resources/Model Scores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\UNC_Bootcamp\Project-2\Project-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\UNC_Bootcamp\Project-2\Project-2\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED6397B-53EF-4BAE-80DB-635F6E5FE18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE6E07-1E98-44CD-9C3A-D37646A658D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="1896" windowWidth="30936" windowHeight="16776" xr2:uid="{F3E0BA6A-7311-43D4-BCC9-C687FAE6B9DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -486,21 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64203A6E-0BE4-4344-B0DC-4F975F524A25}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="6" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -508,19 +508,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,51 +525,55 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="C2" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.97599999999999998</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>0.98</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0.98399999999999999</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>0.96799999999999997</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>0.83599999999999997</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>0.95199999999999996</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -582,9 +583,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -594,19 +594,19 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>0.97599999999999998</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>0.97199999999999998</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
